--- a/YC/新建 Microsoft Excel 工作表.xlsx
+++ b/YC/新建 Microsoft Excel 工作表.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY\YC&amp;WF\YC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683C4CA0-2E4B-4C2A-A42E-69CB5A942F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3506F525-2FFB-4EC0-80B8-A28C5BD75CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="11">
   <si>
     <t>n</t>
   </si>
@@ -50,14 +52,31 @@
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>n=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000000_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -83,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -106,11 +125,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -120,6 +176,27 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F8C132-9D80-4BDE-9656-3A3F2231A71D}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1302,4 +1379,1223 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E95B030-4016-4800-85AF-AFB0A99A683D}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G1" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8.4790999999999998E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5.3965999999999997E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.53459650000000003</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.8080406999999998</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.3399299999999999E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9.1223999999999993E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9.5449699999999998E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.33013330000000002</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.39863E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.7772999999999999E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.14222E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.31741E-2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9.9772000000000003E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.457E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.9738999999999999E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.37777E-2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4.5620000000000001E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.8427999999999999E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.47500920000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.0008271999999998</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41775C35-1853-473C-B6AC-838B0C23C88B}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="9.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2.41</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2.42</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2.44</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2.46</v>
+      </c>
+      <c r="I2" s="6">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="K2" s="6">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.6095600000000002E-2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1.1919999999999999E-3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>7.4310000000000001E-4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5.8580000000000004E-4</v>
+      </c>
+      <c r="F3" s="7">
+        <v>9.2469999999999998E-4</v>
+      </c>
+      <c r="G3" s="7">
+        <v>7.8100000000000001E-4</v>
+      </c>
+      <c r="H3" s="7">
+        <v>8.12E-4</v>
+      </c>
+      <c r="I3" s="7">
+        <v>5.5219999999999998E-4</v>
+      </c>
+      <c r="J3" s="7">
+        <v>5.0440000000000001E-4</v>
+      </c>
+      <c r="K3" s="7">
+        <v>6.5220000000000002E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>9.0530000000000003E-3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3.2449999999999997E-4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2.5920000000000001E-4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3.9169999999999998E-4</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2.0709999999999999E-4</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.693E-4</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1.4440000000000001E-4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1.359E-4</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1.7320000000000001E-4</v>
+      </c>
+      <c r="K4" s="7">
+        <v>2.2819999999999999E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1.5007400000000001E-2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1.3089E-3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>9.0079999999999999E-4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>8.9280000000000002E-4</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3.3127E-3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>6.5189999999999996E-4</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4.348E-4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3.7980000000000002E-4</v>
+      </c>
+      <c r="J5" s="7">
+        <v>4.2559999999999999E-4</v>
+      </c>
+      <c r="K5" s="7">
+        <v>3.8160000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1.5883700000000001E-2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2.611E-3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9.9909999999999994E-4</v>
+      </c>
+      <c r="E6" s="7">
+        <v>7.9290000000000003E-4</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5.8949999999999996E-4</v>
+      </c>
+      <c r="G6" s="7">
+        <v>7.3570000000000005E-4</v>
+      </c>
+      <c r="H6" s="7">
+        <v>8.9829999999999999E-4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9.0600000000000001E-4</v>
+      </c>
+      <c r="J6" s="7">
+        <v>9.7110000000000002E-4</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1.0365999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1.23375E-2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4.058E-4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2.4830000000000002E-4</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2.2560000000000001E-4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2.1670000000000001E-4</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2.3350000000000001E-4</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2.376E-4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2.677E-4</v>
+      </c>
+      <c r="J7" s="7">
+        <v>3.4309999999999999E-4</v>
+      </c>
+      <c r="K7" s="7">
+        <v>3.4600000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2.41</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2.42</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2.44</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2.46</v>
+      </c>
+      <c r="I10" s="6">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7">
+        <v>3.7997999999999999E-3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3.0430000000000001E-3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3.7336000000000001E-3</v>
+      </c>
+      <c r="E11" s="7">
+        <v>8.4519999999999994E-3</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2.8673000000000001E-3</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2.6486999999999999E-3</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2.2747000000000002E-3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2.1771E-3</v>
+      </c>
+      <c r="J11" s="7">
+        <v>2.4567E-3</v>
+      </c>
+      <c r="K11" s="7">
+        <v>2.9616999999999998E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1.9511000000000001E-3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1.1312E-3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1.1792E-3</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1.1413E-3</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1.0646E-3</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1.085E-3</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1.1555000000000001E-3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1.0754E-3</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1.1347E-3</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1.4945E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1.6086E-3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.3611000000000001E-3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1.183E-3</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1.1634E-3</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1.1784E-3</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1.2522E-3</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1.2752E-3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1.3817E-3</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1.5383E-3</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1.462E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1.9082999999999999E-3</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.6754000000000001E-3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1.7844E-3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.6207999999999999E-3</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1.4048000000000001E-3</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1.7147E-3</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2.1595E-3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2.1218000000000001E-3</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2.0566999999999998E-3</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1.8896E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3.0357000000000001E-3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.0466E-3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2.1385000000000002E-3</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1.6308E-3</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.6723E-3</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1.8779999999999999E-3</v>
+      </c>
+      <c r="H15" s="7">
+        <v>2.4868999999999998E-3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2.3264000000000002E-3</v>
+      </c>
+      <c r="J15" s="7">
+        <v>2.5634E-3</v>
+      </c>
+      <c r="K15" s="7">
+        <v>2.297E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2.41</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2.42</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2.44</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H18" s="6">
+        <v>2.46</v>
+      </c>
+      <c r="I18" s="6">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="K18" s="6">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.54429150000000004</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.52672269999999999</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.32355859999999997</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.32527719999999999</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.31930150000000002</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.34211770000000002</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.31018479999999998</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.48058279999999998</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.48812860000000002</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.48176960000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7">
+        <v>8.8153800000000004E-2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>7.59769E-2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4.7362099999999997E-2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>6.0676099999999997E-2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>5.1985400000000001E-2</v>
+      </c>
+      <c r="G20" s="7">
+        <v>6.4331899999999997E-2</v>
+      </c>
+      <c r="H20" s="7">
+        <v>6.5267199999999997E-2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>8.0196500000000004E-2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>8.5548299999999994E-2</v>
+      </c>
+      <c r="K20" s="7">
+        <v>6.3300999999999996E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="7">
+        <v>8.8538999999999996E-3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>7.9809000000000008E-3</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1.0798500000000001E-2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2.0996600000000001E-2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>6.6211000000000004E-3</v>
+      </c>
+      <c r="G21" s="7">
+        <v>3.31329E-2</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3.2304600000000003E-2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>7.4441999999999998E-3</v>
+      </c>
+      <c r="J21" s="7">
+        <v>4.6142200000000001E-2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>7.8212999999999998E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1.00765E-2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>6.2075499999999999E-2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>5.3758899999999998E-2</v>
+      </c>
+      <c r="E22" s="7">
+        <v>3.0424900000000001E-2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>9.1322E-2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>8.1609000000000004E-3</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1.64955E-2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1.7154800000000001E-2</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1.4529500000000001E-2</v>
+      </c>
+      <c r="K22" s="7">
+        <v>9.8053000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.16425020000000001</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.14869250000000001</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.1155822</v>
+      </c>
+      <c r="E23" s="7">
+        <v>8.7663099999999994E-2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>8.0963900000000005E-2</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.1072018</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.1209209</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.1125463</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0.1220036</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.1162494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2.41</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2.42</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F26" s="6">
+        <v>2.44</v>
+      </c>
+      <c r="G26" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H26" s="6">
+        <v>2.46</v>
+      </c>
+      <c r="I26" s="6">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="J26" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="K26" s="6">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="7">
+        <v>3.8976014999999999</v>
+      </c>
+      <c r="C27" s="7">
+        <v>4.0265431999999999</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2.7392557000000002</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2.7482893000000002</v>
+      </c>
+      <c r="F27" s="7">
+        <v>2.4582579999999998</v>
+      </c>
+      <c r="G27" s="7">
+        <v>2.4327309000000001</v>
+      </c>
+      <c r="H27" s="7">
+        <v>2.4411664000000002</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3.6513007000000002</v>
+      </c>
+      <c r="J27" s="7">
+        <v>3.6330225</v>
+      </c>
+      <c r="K27" s="7">
+        <v>3.6279501000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.3251561</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.27730670000000002</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.15371599999999999</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.16057589999999999</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.1774394</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.16292480000000001</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.15674070000000001</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.2288221</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0.23600090000000001</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.22500390000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1.9584000000000001E-2</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1.9444400000000001E-2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1.32216E-2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2.34252E-2</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1.9915800000000001E-2</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1.1309899999999999E-2</v>
+      </c>
+      <c r="H29" s="7">
+        <v>4.4240300000000003E-2</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1.32821E-2</v>
+      </c>
+      <c r="J29" s="7">
+        <v>4.8970800000000002E-2</v>
+      </c>
+      <c r="K29" s="7">
+        <v>2.3194099999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="7">
+        <v>9.5916999999999999E-3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2.15985E-2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3.6907799999999998E-2</v>
+      </c>
+      <c r="E30" s="7">
+        <v>4.1618299999999997E-2</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1.9484100000000001E-2</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1.7765E-2</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3.4386399999999998E-2</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2.9933000000000001E-2</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1.8099899999999999E-2</v>
+      </c>
+      <c r="K30" s="7">
+        <v>1.33889E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.51512610000000003</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.4108327</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.40617130000000001</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.23992930000000001</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.27054800000000001</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.4188981</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.40126260000000002</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.48827429999999999</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.55567140000000004</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0.58128219999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A25:K25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>